--- a/extracted_texts.xlsx
+++ b/extracted_texts.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0615c829-8d1c-4110-ba95-46c52b7eb26c</t>
+          <t>b6b5e49c-ab79-48cf-8461-e7f5558544c2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -478,7 +478,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23373bcf-2174-4359-bbb2-95b311a4555f</t>
+          <t>7eb759bb-f94d-42b7-98af-a3ad24470d52</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -493,7 +493,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0c29c622-f0bb-4a47-91a6-e2ffccebf5c1</t>
+          <t>bcfa0e3b-fa83-4cae-ab94-16eff46f535a</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -509,7 +509,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>b86879d3-fa79-4c26-82a9-e15c43cd98a9</t>
+          <t>7dcb47e3-2c94-463e-9fb7-46237c16d83f</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -520,7 +520,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6a62ba98-b2a5-4d3b-a3a2-b88def725f3d</t>
+          <t>b116c855-08aa-4f2e-895e-0dea883a3abb</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -531,7 +531,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>e1d039a2-8778-4856-9ea9-a76d109bcda8</t>
+          <t>2fac53e0-38ef-4289-b4ad-ca882fd2ef86</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -541,7 +541,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4582c1f6-0035-4781-b5b7-b6b07d153dd1</t>
+          <t>c1af0274-f027-446d-8323-51d2f44a9646</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -556,7 +556,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>08cf0613-ef4f-4767-88bc-e13a0bf0ef76</t>
+          <t>c5edcc08-aed1-4aa1-99cb-b1fc8b4a4ed5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -573,7 +573,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0741ae6e-e121-4b69-9e59-58b59ff3a3f4</t>
+          <t>a7b2d968-af2f-4024-9a0a-1b69b8cbe55e</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -584,7 +584,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3832dbdc-bb33-469e-8379-5c04afaa4ca0</t>
+          <t>aeeb304e-4070-459a-a286-c97a2927322b</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -594,7 +594,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1b3bb917-ea88-4823-af4e-87269bc6caaf</t>
+          <t>e6b536bb-cffe-4c0c-b0ac-32882d31fa06</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -611,7 +611,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dbaad682-ea3d-4a17-bb2a-c2c7e96dbe94</t>
+          <t>ba19586b-a5a9-4f85-9e3f-67040cacb38b</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -621,7 +621,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>e7105fde-2a90-411b-a618-c0e70ca80669</t>
+          <t>7c496da8-262a-4cdd-ad9a-9cf32590b247</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -636,7 +636,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ab2cf261-f7f8-4df0-8517-839b76fd74ad</t>
+          <t>514cf071-46ca-405a-af42-6d9f7e460b1f</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -652,7 +652,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2ddafade-9a41-4dc4-8b76-765b7ca6319a</t>
+          <t>be2ed4b7-b41f-44c0-b540-7add8ccb4055</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -667,7 +667,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>d2218a34-bd8c-447c-8ebb-ed6db9242183</t>
+          <t>978f7aed-8367-42c4-a997-0166d8243dea</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -682,7 +682,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0e831fb8-1bef-4903-b813-67b099520c00</t>
+          <t>02ede253-adeb-4d0b-b74f-058cdd263d01</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -698,7 +698,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ae10e9d7-847c-4bcd-bc86-9acf632c1f07</t>
+          <t>dc949996-0ef1-469c-9346-c84dc9fa4943</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -714,7 +714,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3c3f7119-abf0-4474-8fb5-d90edf035054</t>
+          <t>f6533400-041d-481e-9fef-c8bf7ea8fbec</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -730,7 +730,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>28ef3900-709a-4b27-be05-eddd08e8cf54</t>
+          <t>d07d6c1f-75ed-4e7b-888a-3022bed33c7e</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -746,7 +746,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4e2c1f6e-d7f9-4d01-bf7a-c8c4d6d8e6ee</t>
+          <t>9c0852c7-ad59-4dc8-8626-59ab41c67937</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -761,7 +761,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>268e6929-2d4c-4519-9150-6fd3ef96d9b5</t>
+          <t>244e2f41-9851-4621-950c-f350de359f47</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -778,7 +778,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8b2c0890-a25b-42a0-b468-848a3c3ef411</t>
+          <t>c8ba32aa-6ed7-494a-b510-3fcafc266693</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -789,7 +789,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>be73ebbb-50c0-45af-8209-f01f429ea48d</t>
+          <t>7e9f6250-bd1a-4336-84d8-d46d263230d9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -800,7 +800,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>394fec0b-450c-4ecc-bee2-79c4b34c3114</t>
+          <t>611e11a6-be11-4b51-8284-cd3efa21a334</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -811,7 +811,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6189247c-e8fa-4c3a-959b-ce68450a5bd4</t>
+          <t>34941ec1-c83e-4245-9bcc-b24eedeb9da6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -822,7 +822,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>402f9c94-03bb-48a1-b97a-d22704d93288</t>
+          <t>e8c45e38-6aac-4bd9-be80-f8c5e8e6f1f4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -833,7 +833,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>b6a752c2-6b2d-4162-b377-5013f68ee97a</t>
+          <t>9e414662-6496-49eb-88cb-a8baa660e072</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -844,7 +844,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>c0da0302-37a9-4e83-9a7b-31149178f299</t>
+          <t>fcf05ef4-10d3-458c-b1ec-4113553cb3c7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -855,7 +855,7 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>da73f823-46ff-4f89-b8a3-57bd856dc051</t>
+          <t>2a22d80c-329f-4f06-aa04-33a7c5a061d9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -866,7 +866,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6ffb189e-4874-4029-9a16-b8a3f58e8a06</t>
+          <t>26d4ef00-93fd-4ff8-802e-f711f8c67fac</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -877,7 +877,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>7f392df3-4529-4a66-8375-873fe016f4ae</t>
+          <t>01fd75cf-4f2e-4d16-b08d-60620d65753f</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
@@ -887,7 +887,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>063958a7-b42a-40d7-9875-eaeb77d79bb8</t>
+          <t>12698e1d-553c-4237-ab42-1a78421f829d</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -904,7 +904,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>65ebff92-7145-4aeb-8b1c-999123fbebda</t>
+          <t>f8a5ec5e-6f44-4f51-b527-e888ec0d8596</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -914,7 +914,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1c3f6575-fb65-4e51-a538-83355223808d</t>
+          <t>b621cfe6-fcac-42b2-884d-6e2c901123dc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -931,7 +931,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3d344dd5-f5e9-4ea2-a3df-2a5d3b2a96d0</t>
+          <t>4784ccbc-d0c8-4079-89e0-44b4b71b260b</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -941,7 +941,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>891b3040-eb49-4be8-9892-10a46a9751dd</t>
+          <t>8f402689-6353-448b-9f04-19d35755089c</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -958,7 +958,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ce675264-112a-437e-99d7-7952b5c15263</t>
+          <t>44781f1f-2886-45b5-a1f3-768e72a9b786</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -968,7 +968,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>469fe373-19ec-4ae9-9788-67508f44bb3c</t>
+          <t>654424be-1610-418c-ae29-50b706566cbb</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -985,7 +985,7 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cef43938-8d19-4e9c-a5c4-5f1922cdf0fb</t>
+          <t>19b3e911-befb-42b8-ab81-1bbc5f587a44</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -995,7 +995,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1c8831d9-8977-48b2-9fed-9ed899ff006c</t>
+          <t>2469c892-2393-47f0-bf9f-a06d3c62e02f</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>badc6310-0fa6-4c0c-a12a-742ee4d99a18</t>
+          <t>7571ee76-9f5d-4adf-a140-308921b59bf3</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -1022,7 +1022,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>35f0ea7a-8f7c-43ba-b7d8-fa5f2761bcad</t>
+          <t>33999df7-901d-4ca8-b064-98ac0d9534a1</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1039,7 +1039,7 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>274dee97-8bfc-47fe-a68c-b516877260fb</t>
+          <t>092d5022-0f8e-4082-8513-b0d3ea03fc44</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -1049,7 +1049,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0591ad91-b826-4b0e-8b83-0ca6a70699b3</t>
+          <t>7f362663-782a-4875-a2cf-414ed988e0a8</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1066,7 +1066,7 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3a4e1100-ec18-4698-98c5-2d30c0723bca</t>
+          <t>eefc3ed8-7d8e-4899-ae55-a1e8be8e9aca</t>
         </is>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -1076,7 +1076,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>79d91944-2928-4c4f-a5d2-2a99779f68b3</t>
+          <t>fd3a2bfc-a0d7-4515-928e-f2faffe8fde6</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1093,7 +1093,7 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9838d3d3-4147-4a0c-ae57-6c044b3b7386</t>
+          <t>f3e1414a-fed8-499b-a6f5-c533ed62f670</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>b4714390-0e21-4a8d-b353-7a2032694950</t>
+          <t>58c24ed0-752c-4809-bde0-101dd975ca4f</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1120,7 +1120,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>832b93ee-8823-4506-b973-17269f83203c</t>
+          <t>85111e62-f4eb-4843-ae4d-704526789652</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -1130,7 +1130,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>e47c0d7d-4994-422d-b214-5094b355d960</t>
+          <t>42b238f8-2f34-4ce4-80ee-16b8a0f420ca</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1147,7 +1147,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>e182cc0d-ec19-483f-9b04-4bb4b31e8803</t>
+          <t>8c708b41-60fb-4a8b-9ae1-b0a094e912f6</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -1157,7 +1157,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>7540258a-ac76-4297-940b-fac4fdccfc7d</t>
+          <t>10bd63d5-17c4-4dea-8bec-8c2a787e5bb3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1174,7 +1174,7 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>099f189a-1c5c-4134-b7b0-647d4f9404a8</t>
+          <t>4ba7eec3-a07b-46c6-b8bf-6704a8976320</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -1184,7 +1184,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>09d642cd-2784-43ec-9be0-3ad60afcc6bb</t>
+          <t>283a17b4-2525-4e96-b810-7805209c53b8</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -1201,7 +1201,7 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>bfc6d861-4658-4fbb-86e3-bf00be448984</t>
+          <t>a4876770-3dee-4a5f-b475-b1cac3d5e9f5</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -1211,7 +1211,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>db3dc8ae-b79a-4fb7-b782-8dde9a1a41d0</t>
+          <t>8c4cdb63-06a2-4b56-90ec-470aae96a3d1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr"/>
@@ -1228,7 +1228,7 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>772eb28a-35e8-45ba-9798-2375de1722e1</t>
+          <t>822ba42d-eb35-49f3-a794-7522ebedac6d</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7d31b6d2-4a90-4db0-b99b-0175c553a4f5</t>
+          <t>e3cc0d97-8b05-4c37-97c5-d0b3db054144</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
@@ -1255,7 +1255,7 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2d729c38-abe4-439f-aed9-ff1e8ccf31c9</t>
+          <t>8a3f705f-2021-467d-9e94-f3a26bcc2604</t>
         </is>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>9b7d2d49-431c-42de-b8d3-d75fa21c378c</t>
+          <t>6911ca98-5f1f-47d2-a190-5543c262a800</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
@@ -1282,7 +1282,7 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6107ab70-f483-4710-a9c1-abb5376b7785</t>
+          <t>2d652e91-e7ba-49f1-8784-248d70b12116</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -1292,7 +1292,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9f0dc454-fe4a-43e7-a2f9-ea0bfacbec1a</t>
+          <t>297c08b2-c391-484f-aba1-268071d58243</t>
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>9bacb469-98ce-4361-bb0b-1a82a5a39c51</t>
+          <t>e71a207e-b3da-47bc-af32-ec48abb18137</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -1319,7 +1319,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0732d614-4e99-481d-b294-1e080687be49</t>
+          <t>6478a2b3-4927-4705-8b43-6bc37af3005f</t>
         </is>
       </c>
       <c r="B66" t="inlineStr"/>
@@ -1335,7 +1335,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>5a96be56-ccc0-4137-8cfc-fb51238aac6f</t>
+          <t>dc74a6aa-41d8-46e0-9add-51b043756ae5</t>
         </is>
       </c>
       <c r="B67" t="inlineStr"/>
@@ -1351,7 +1351,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ce8507f6-ebd2-4cab-a4cf-a014fc1e05ea</t>
+          <t>8b3c7cb3-8785-442f-b71c-4a7a4741b77c</t>
         </is>
       </c>
       <c r="B68" t="inlineStr"/>
@@ -1367,7 +1367,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>e5fe8d57-17c1-4b26-b090-76c6d0a6d2c6</t>
+          <t>eac4b974-5421-4f49-9205-34b8f84cd68c</t>
         </is>
       </c>
       <c r="B69" t="inlineStr"/>
@@ -1384,7 +1384,7 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>7eaf35de-2834-4f3b-84c2-ef199bb4b3ec</t>
+          <t>55b307cf-7c80-4fb3-9109-df58dbf65760</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -1395,7 +1395,7 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ac78196e-942f-4480-aebd-06362b1a03c9</t>
+          <t>5324b514-4d75-4de9-8da1-fe8c938a42ec</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -1406,7 +1406,7 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>23836067-1e1e-4162-a411-64d5ac3a6d07</t>
+          <t>e492a519-59fb-41bf-b6ba-75fe2057380c</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -1417,7 +1417,7 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2e9e043f-fe38-4f2d-96c8-a82ebd7049cc</t>
+          <t>48756a3a-2843-402f-a690-22d93561a697</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
@@ -1427,7 +1427,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>f2cfe612-e9fd-4d9f-8558-32ecec5cba6c</t>
+          <t>998abe76-e54c-45fa-be37-a7812889e37b</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1443,7 +1443,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>acb181a5-36a3-4227-9567-b87ba7cfac3b</t>
+          <t>46052af0-073c-4fb5-82dd-e43df8757a05</t>
         </is>
       </c>
       <c r="B75" t="inlineStr"/>
@@ -1460,7 +1460,7 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>87910b24-762e-4708-b30d-c9c96b104357</t>
+          <t>09022cbe-b824-4a99-a997-fb2e510689c9</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -1471,7 +1471,7 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6692cfcc-5b59-4ebe-8ccf-e928c2db4993</t>
+          <t>5611de52-9cb1-48fb-81be-9bdadf21dad3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -1481,7 +1481,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>6855d66d-f9a3-4ebb-b614-fbf20c97cd9e</t>
+          <t>3b801079-f892-4892-a659-74ed7f4838f4</t>
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>bbdb2c1b-8f35-42b4-bb04-49166eb0fab9</t>
+          <t>b4e06773-d247-4eae-b22b-7e240da98a52</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1514,7 +1514,7 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>605e0426-95a3-4b9c-9250-0e3d29d19410</t>
+          <t>a80119c7-aa33-480c-91ff-4dcc63412efc</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -1525,7 +1525,7 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>f70b88a2-a8d5-47cd-aaeb-6c93b48ae5fa</t>
+          <t>3896f5e3-2597-4424-952e-323479ce100c</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -1535,7 +1535,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7289a4e4-a623-4cba-9883-137a391b7943</t>
+          <t>79950c65-4e28-476d-924b-53860ade31a9</t>
         </is>
       </c>
       <c r="B82" t="inlineStr"/>
@@ -1551,7 +1551,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ea31a5ed-1909-475d-88dc-67946165952a</t>
+          <t>c80a8384-7ce1-409d-abcd-9ca139bd80bf</t>
         </is>
       </c>
       <c r="B83" t="inlineStr"/>
@@ -1568,7 +1568,7 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>e5fd7190-b20f-4ef5-923b-9c8b6fde96be</t>
+          <t>3394c21f-f5e8-4e69-b974-0f4d0fc9398c</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -1579,7 +1579,7 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>44697c5d-72df-4775-9fe4-ae361bed7b0c</t>
+          <t>3f22d0ce-41f7-4f96-8895-45a14bdcb98d</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -1589,7 +1589,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ae36610a-cf10-4132-bac0-6e2d1a293eb1</t>
+          <t>d3ff5302-5d9b-4f67-a662-90f2ab13bad5</t>
         </is>
       </c>
       <c r="B86" t="inlineStr"/>
@@ -1605,7 +1605,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>62615893-493d-4691-9232-8b618aedb1ae</t>
+          <t>2c30ab6d-838f-4c36-a592-2b3095f00196</t>
         </is>
       </c>
       <c r="B87" t="inlineStr"/>
@@ -1621,7 +1621,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>cb992a66-4418-46d6-a359-ba385186af28</t>
+          <t>71c9111d-c9d4-4ffa-92d6-830f93c7df84</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -1637,7 +1637,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>b68ee23d-6712-4432-8fbe-735aa2472560</t>
+          <t>4ea5172b-d0a5-40d3-8643-93eb1b2e37c8</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1654,7 +1654,7 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>be6f6d33-3875-4223-9fea-da29229c8a48</t>
+          <t>24aa2735-0ffc-479e-8f74-cad7c5c21560</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -1665,7 +1665,7 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>35e9b6dd-23af-49f7-a909-ed6a5cc34686</t>
+          <t>6e89f52b-7999-42a0-be4e-6efd8d7b1a6a</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
@@ -1676,7 +1676,7 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1180f005-5630-4340-b3cc-20683b9f6f0b</t>
+          <t>7b852cfa-53db-492c-93e6-1a6b97f5d938</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -1687,7 +1687,7 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>25b7cb41-f716-41d6-9692-e78f28f1946c</t>
+          <t>a1c8a571-c5fc-48df-9352-7cd4be7c1c99</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -1697,7 +1697,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>b9ff02cc-d9bc-4586-bd27-3d4d42941e73</t>
+          <t>97c0897d-b10e-4c53-8fdc-4d5294dcefa4</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -1713,7 +1713,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>0950f90f-9381-46dc-8c89-be8dfe4942ae</t>
+          <t>b61d7a23-a8c6-4965-ad5c-2fdcef58f3ee</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -1729,7 +1729,7 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>4fc480c9-b93e-4f57-beb8-72a0288b3652</t>
+          <t>7fe5cd6b-5b00-422a-823d-36441beb6a1b</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
@@ -1740,7 +1740,7 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5168b2fb-0d34-49ca-92fb-aa7f44d32bb6</t>
+          <t>fb530b23-0c07-42b2-9157-4a9dac571793</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
@@ -1750,7 +1750,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>475707ee-73f1-4d10-8a51-0ddc46b8d297</t>
+          <t>b1d36de0-f4c9-4967-891e-39e4174e5c8f</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
@@ -1767,7 +1767,7 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>e4bff71d-1f71-4626-bd61-49cbf3441743</t>
+          <t>e70b2ea9-2780-41d2-a20a-1582276768ec</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -1777,7 +1777,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>729f9a58-ec09-43a8-a62a-ff0791ed8187</t>
+          <t>33f4f310-37f5-4044-9324-b373f07808fd</t>
         </is>
       </c>
       <c r="B100" t="inlineStr"/>
@@ -1793,7 +1793,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8b9d1d3d-1e84-4b4b-9110-1bab741c27a3</t>
+          <t>9c61a19d-5a21-430b-94a9-6d265e94b5b6</t>
         </is>
       </c>
       <c r="B101" t="inlineStr"/>
@@ -1809,7 +1809,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>83685392-0a77-4330-ad51-2db81c53d28b</t>
+          <t>41e600e4-81f3-4618-8f6b-945da2056afb</t>
         </is>
       </c>
       <c r="B102" t="inlineStr"/>
@@ -1825,7 +1825,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>b854ee4f-e935-4d32-a8e4-3a6ed455768e</t>
+          <t>e190c653-1ab2-44b1-b884-60b883ea548c</t>
         </is>
       </c>
       <c r="B103" t="inlineStr"/>
@@ -1841,7 +1841,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>dab98a87-f9c2-4c92-9858-7f3aae703d94</t>
+          <t>6dfc19dc-c542-44e1-a492-65d3a15296be</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -1857,7 +1857,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>87953173-5ac1-48af-bffa-9abcb85c2d68</t>
+          <t>f3093ce9-a921-4d66-a9ee-bef46c1b1d2c</t>
         </is>
       </c>
       <c r="B105" t="inlineStr"/>
@@ -1873,7 +1873,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>def26f7d-46bd-4156-b210-4734fd1d5180</t>
+          <t>29ef826d-d780-47be-99f0-c217a87d392f</t>
         </is>
       </c>
       <c r="B106" t="inlineStr"/>
@@ -1889,7 +1889,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>9c7c1a64-2e5a-4e51-99e6-d929e9ede123</t>
+          <t>5acd09ba-73d4-4b1f-8a55-6bfc5c844e7b</t>
         </is>
       </c>
       <c r="B107" t="inlineStr"/>
@@ -1906,7 +1906,7 @@
       <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
-          <t>a5530bd0-8514-471a-9706-3e3aa16875cc</t>
+          <t>3108b7e1-3a60-4f8f-b9ca-4d76dfaa274f</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -1917,7 +1917,7 @@
       <c r="A109" t="inlineStr"/>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1e5b4b57-fbcb-4db5-8c57-a2a5a705e25c</t>
+          <t>e8c9d8f3-5ff0-49cf-8960-44d1d7167c30</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -1928,7 +1928,7 @@
       <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ccd8a938-6024-4eb1-ab46-fe91b697edd1</t>
+          <t>22bd9999-2692-4c49-8a05-6bfe792ab48f</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
       <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
-          <t>bb0175e9-3a3a-403a-8c79-7f484c2f4c33</t>
+          <t>3e1a06e6-6517-4071-9877-85f783bd45f0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -1950,7 +1950,7 @@
       <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
-          <t>cef31edc-3bdf-4a3e-975c-b48136bc76ec</t>
+          <t>c7671f92-aaff-4ff1-97f4-a79990ca8d22</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -1961,7 +1961,7 @@
       <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
-          <t>1ee291b3-e181-4e71-9415-2ced547ea4ea</t>
+          <t>6ed31aac-42a2-4e2b-b501-b2a1b127b2a7</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -1972,7 +1972,7 @@
       <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
-          <t>bafcbd25-29aa-439f-bfaf-e27f817ceaeb</t>
+          <t>0c667caa-b2b8-4afb-a1ab-06f136434517</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -1983,7 +1983,7 @@
       <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
-          <t>7d4e8811-b1fb-4ad3-97de-4a59b8c9dd67</t>
+          <t>d7dd5e59-675f-49fb-865b-848371d7d59f</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -1993,7 +1993,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>4d47236e-9be9-41d8-93d7-7ea04da9ba32</t>
+          <t>eec5c84f-128f-42a4-946a-ce8d11c71d45</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -2009,7 +2009,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>e7b9a9ca-a87f-49af-8a93-425bb4684d7b</t>
+          <t>fabde6be-c6a5-4c9e-addd-644ffc4907ab</t>
         </is>
       </c>
       <c r="B117" t="inlineStr"/>
@@ -2025,7 +2025,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ba4170b6-4c29-4bda-b310-c159a1f86d5f</t>
+          <t>c0e6deed-9a5a-48bd-a755-aae8947bee1f</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
@@ -2041,7 +2041,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>60ab1fd9-8c28-4db0-8fc6-c99666ae5f2c</t>
+          <t>c48e388c-f652-4910-9fb7-04edd3510327</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2058,7 +2058,7 @@
       <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
-          <t>c2b2e955-89bf-49c4-8007-8f4b723b7163</t>
+          <t>ea327592-b80b-4ba5-9c81-a5db0c60f58d</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -2069,7 +2069,7 @@
       <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
-          <t>de50d361-f2a4-49c5-b5a9-f8fdd1e4f0ac</t>
+          <t>fff1e05f-a6c2-4925-90c5-bcd507d07871</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -2080,7 +2080,7 @@
       <c r="A122" t="inlineStr"/>
       <c r="B122" t="inlineStr">
         <is>
-          <t>919f5260-9b7b-4e6d-836e-99fa950f79ca</t>
+          <t>0fd77773-f0bf-4d9b-beb2-ef06237c97d8</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -2091,7 +2091,7 @@
       <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1b8242eb-8b19-42fb-b087-0b3d3400a382</t>
+          <t>e165df74-96a9-410e-b3ad-6c242ab0e419</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>4b4448df-3740-4440-a7db-8d82485e62d3</t>
+          <t>83765454-7d09-4ed8-a8d1-093ed37892b1</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2117,7 +2117,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>e8d864c5-599d-4678-b70c-ecfda62bbd00</t>
+          <t>e1fce1d6-22aa-4a5e-9d44-62b8a994c6e8</t>
         </is>
       </c>
       <c r="B125" t="inlineStr"/>
@@ -2133,7 +2133,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>42c5e051-e4ed-4688-81d6-51f7cff1a806</t>
+          <t>a4eb789a-3b4d-408e-9491-c7d9b3e7bf3c</t>
         </is>
       </c>
       <c r="B126" t="inlineStr"/>
@@ -2149,7 +2149,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>0a90e8b3-a9ac-4e49-8e94-ca4d8e774dd5</t>
+          <t>21325da9-c0ad-4a3d-abd9-c8248329dc5b</t>
         </is>
       </c>
       <c r="B127" t="inlineStr"/>
@@ -2165,7 +2165,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0c0baa7e-33af-475f-984f-a352506691a6</t>
+          <t>9715adcf-9895-4729-8b91-76a7c0592f6d</t>
         </is>
       </c>
       <c r="B128" t="inlineStr"/>
@@ -2181,7 +2181,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>9a27ef67-0abf-4867-b010-fac502fd8558</t>
+          <t>0e816dfc-3733-4e9b-bbef-5e1487700292</t>
         </is>
       </c>
       <c r="B129" t="inlineStr"/>
@@ -2197,7 +2197,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>387653a0-026f-4f90-9aae-0f2f2a16f571</t>
+          <t>4993f67e-9a17-4e06-9946-6ace044e4b7a</t>
         </is>
       </c>
       <c r="B130" t="inlineStr"/>
@@ -2214,7 +2214,7 @@
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>63263235-fb1a-4ef6-9773-68d06c16096c</t>
+          <t>9bf2aafd-fa38-4000-a620-dde6416d307b</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -2225,7 +2225,7 @@
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
-          <t>e842cf98-ed90-4d4c-8b0f-d00a8a0da7bd</t>
+          <t>cfcd00ee-2ab5-4cd5-8d80-002a57ac7f1f</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>6e4786c2-89ae-498b-813c-b7fe7f95d8c5</t>
+          <t>db6069f5-7d38-4708-9293-9d1f9914a262</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -2247,7 +2247,7 @@
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>fbfda23b-3700-4d38-9ccd-006c582329d6</t>
+          <t>1fbbc9e7-c8f7-442f-b805-3491c729fb9d</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -2258,7 +2258,7 @@
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
-          <t>38dc9e71-ec2e-4cef-9c6b-6a64a9ccf76f</t>
+          <t>b5102800-feaf-43da-971a-c69ba714ae14</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -2269,7 +2269,7 @@
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
-          <t>4ecbf6c2-8f55-47f7-847e-756050b924b2</t>
+          <t>ea02df9a-6b3c-4d46-b6c3-1b8e8715ffaa</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
-          <t>4c16fb71-f79e-4527-965d-8a6d7d309115</t>
+          <t>97804f86-7a85-4dee-b3f3-f9226329922f</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -2290,7 +2290,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>57e0ffb2-b309-463a-9e50-cee355d3dd11</t>
+          <t>23778976-6db1-43fa-bc4c-3fdb8b5dd9b7</t>
         </is>
       </c>
       <c r="B138" t="inlineStr"/>
@@ -2306,7 +2306,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>50fe33d7-c131-450a-8b00-60897c39acfe</t>
+          <t>4451ae90-462f-4df6-8e6f-567036a34a99</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2323,7 +2323,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>a5481be7-dc41-48be-8b15-c011fe18b9de</t>
+          <t>bff350a5-0347-4681-be5a-c3e3ae376571</t>
         </is>
       </c>
       <c r="B140" t="inlineStr"/>
@@ -2339,7 +2339,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>f1144d3d-585e-476c-aa3b-a12721fd3948</t>
+          <t>bbd53b4d-01bb-4e4f-b848-47051137dfe6</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -2354,7 +2354,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>4804b852-a40d-4c65-94fd-d9aa8c5bea69</t>
+          <t>767ebe76-6a06-4e72-bf0c-2455b4715291</t>
         </is>
       </c>
       <c r="B142" t="inlineStr"/>
@@ -2371,7 +2371,7 @@
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
-          <t>331e8909-8cc3-4a5f-beae-32c694149a2d</t>
+          <t>63853f7b-0c1c-4033-a010-54d4af878f55</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -2382,7 +2382,7 @@
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr">
         <is>
-          <t>34dfe1fe-ba5e-4657-b7c1-d6d1d4cc45a7</t>
+          <t>8d8dd095-b19e-4f79-a4c3-5af45045659f</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -2393,7 +2393,7 @@
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
-          <t>be30c5f8-ef50-4a35-bad5-37f652cdcb61</t>
+          <t>df9e9b7b-93f6-41aa-9673-a4488741a9d8</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -2404,7 +2404,7 @@
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
-          <t>a5f001bf-b626-42f0-947f-844b39539c11</t>
+          <t>a039a3b6-5151-49f2-93a0-393c315c5b7f</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -2415,7 +2415,7 @@
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr">
         <is>
-          <t>d1226e4e-54a2-4424-90b5-2b12d843a093</t>
+          <t>7b75b423-3068-46ca-8736-b0a16e10115a</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -2425,7 +2425,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>8ad99cd7-fa17-4e24-bd84-6c1bfd0a0756</t>
+          <t>dbadcc91-dd74-4c94-a720-13e6898e52e6</t>
         </is>
       </c>
       <c r="B148" t="inlineStr"/>
@@ -2441,7 +2441,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>243a0e4f-c260-452e-97df-a421078e95a1</t>
+          <t>1bce66ab-341d-4cb3-a8d5-4b5f7be122ff</t>
         </is>
       </c>
       <c r="B149" t="inlineStr"/>
@@ -2457,7 +2457,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>056aaff4-b6e8-4081-be24-4de112e40a31</t>
+          <t>3d630e72-c0d9-42ad-acee-746f64acb3ca</t>
         </is>
       </c>
       <c r="B150" t="inlineStr"/>
@@ -2474,7 +2474,7 @@
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
-          <t>5c08947f-c755-4b4a-8168-cc3ec67f6bfd</t>
+          <t>149dd299-af75-4c29-bf2f-4432d715c4ed</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -2485,7 +2485,7 @@
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
-          <t>416b045b-e819-4042-92d2-9fb0fa143f8f</t>
+          <t>f06d3891-e2de-4294-b6ad-1c7e57fb7e9a</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
-          <t>17daa8c5-edfb-496b-97d9-fb2e0a639595</t>
+          <t>b334a090-daab-4c90-8f73-6a3608036a5d</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -2506,7 +2506,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>d55336c9-3162-4afd-b6ff-a6639c9a1da9</t>
+          <t>7631c884-e207-4be3-a26f-eaa3c91c091f</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2522,7 +2522,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>1964aac5-2302-47f0-8b81-aa3b342f4c7d</t>
+          <t>88564168-c624-4fc3-8f38-1bba7d1da90a</t>
         </is>
       </c>
       <c r="B155" t="inlineStr"/>
@@ -2539,7 +2539,7 @@
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
-          <t>a684c6f2-3d89-480d-93b2-dfbfdcc4738d</t>
+          <t>55a31751-7ed9-4b5f-b375-1cabc273c80b</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -2550,7 +2550,7 @@
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
-          <t>b344dda4-4f44-4635-8290-4517f07e3484</t>
+          <t>0b52d52d-f9e1-46fb-b894-ca662827840a</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -2560,7 +2560,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>5910bdb2-3536-47dd-84cf-08e6c4c8ac51</t>
+          <t>5f7c41fd-b0cb-4c78-a661-65c61bc6b5d4</t>
         </is>
       </c>
       <c r="B158" t="inlineStr"/>
@@ -2577,7 +2577,7 @@
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
-          <t>57b8eeb9-b319-42b0-b27e-581be3ee83f6</t>
+          <t>9d71e5a5-7254-4b59-af7d-d6f0b6543d88</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -2587,7 +2587,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>6cbd1ee4-a60b-4c01-9b2c-105df1aaa027</t>
+          <t>0f813118-f5fd-43f4-b089-f5ca85df12ff</t>
         </is>
       </c>
       <c r="B160" t="inlineStr"/>
@@ -2604,7 +2604,7 @@
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
-          <t>b7e4b3e7-969f-4683-bf33-99a3583dab01</t>
+          <t>9fc20686-0001-4240-b0a9-c0476c79ab68</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -2614,7 +2614,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1314da88-59f5-49e2-9709-9833cc232109</t>
+          <t>742255b7-e08a-4138-acd3-3e6f183c4d0b</t>
         </is>
       </c>
       <c r="B162" t="inlineStr"/>
@@ -2630,7 +2630,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>40caf1e8-4610-4ad2-b7a5-efd6d42c94de</t>
+          <t>7fa79540-0f87-451b-bf52-0ebab8595b0d</t>
         </is>
       </c>
       <c r="B163" t="inlineStr"/>
@@ -2647,7 +2647,7 @@
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ea666c96-e438-462b-a249-e9f962742927</t>
+          <t>b84f1fcd-fa44-472f-a461-3459aae67138</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -2658,7 +2658,7 @@
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
-          <t>4421dc77-947b-4cfc-9f9b-296076c2d101</t>
+          <t>33120689-7d7b-4d0f-a15e-b2557ab81221</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -2668,7 +2668,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>20daaad2-2ff3-4dcc-9b23-3add738d91a4</t>
+          <t>fa75cb61-0f90-4bf8-8b0b-0601c39bbdc4</t>
         </is>
       </c>
       <c r="B166" t="inlineStr"/>
@@ -2685,7 +2685,7 @@
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
-          <t>5300bad6-a041-4ea4-93d7-8d7922782323</t>
+          <t>d11c73f1-6340-46f8-b4c9-06b1d20f7659</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>87f0d334-851f-4fbd-84de-59c8771415ec</t>
+          <t>b5752ff7-6967-42e6-b762-34e568c0886f</t>
         </is>
       </c>
       <c r="B168" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
-          <t>9938792b-b6fd-47cb-a8b8-64e13624806b</t>
+          <t>b73b2be0-45f9-4d7d-a2bf-964a164c40af</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -2722,7 +2722,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>bda144cc-d8e3-4f8b-9611-6cb1a6555b2c</t>
+          <t>0a5e5e69-441d-4830-ad6c-b452f18b669c</t>
         </is>
       </c>
       <c r="B170" t="inlineStr"/>
@@ -2739,7 +2739,7 @@
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
-          <t>b882de15-be6d-4c73-8d34-7d9559838ddb</t>
+          <t>e50afe74-d159-4218-a704-9cf11387312b</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -2749,7 +2749,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>43024386-f439-47c5-a334-16a02014bcb0</t>
+          <t>318ee16d-edf4-43ac-a0d8-7b503a777fd7</t>
         </is>
       </c>
       <c r="B172" t="inlineStr"/>
@@ -2766,7 +2766,7 @@
       <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
-          <t>7c10febb-7207-4f4e-9fa5-2a428dbc30f1</t>
+          <t>537717b0-5627-4786-bd0b-ca5a10215c49</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -2776,7 +2776,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0a7459b4-d0f1-4394-a6d6-312b51fc1782</t>
+          <t>01c7295c-a5d2-4167-bce8-5c480c2cfda1</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -2793,7 +2793,7 @@
       <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
-          <t>755168d1-85a5-4f27-976b-ff6cbc9ddb44</t>
+          <t>31e5012e-73ee-4758-8791-4b22cd64d9a1</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
@@ -2803,7 +2803,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>25a3c710-650e-49d4-b8fb-7230b0a40400</t>
+          <t>1ab617c5-d838-457e-8750-ad2fdaa0002b</t>
         </is>
       </c>
       <c r="B176" t="inlineStr"/>
@@ -2820,7 +2820,7 @@
       <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr">
         <is>
-          <t>adccfe5b-4787-421d-8716-779151faad16</t>
+          <t>d2d8b5e8-6825-4422-93ea-7f719a4aa33e</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
@@ -2830,7 +2830,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>e368e840-b30c-47ff-a35e-72f487846351</t>
+          <t>c9799fad-f694-4351-9766-059dab042b0f</t>
         </is>
       </c>
       <c r="B178" t="inlineStr"/>
@@ -2847,7 +2847,7 @@
       <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr">
         <is>
-          <t>bd512cfd-f66c-4b69-b9d1-4a51281f54b4</t>
+          <t>92ad6ae7-d8e0-4a0a-80ae-9e838352f6a8</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
@@ -2857,7 +2857,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>d20402ec-8aa1-4c12-8979-8485f4a3ae4c</t>
+          <t>18d94046-d1ae-45f6-a5fe-17b6c15f1738</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
@@ -2874,7 +2874,7 @@
       <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
-          <t>6d11c4e2-a5ba-42be-b75d-f24e1fd41682</t>
+          <t>f01b1399-3d85-4e65-aa49-90d917612385</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
@@ -2884,7 +2884,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>53aaaea9-bf6d-4f11-a913-0b67422f2588</t>
+          <t>c36d9d47-d280-4acb-82fd-330fb6800541</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
@@ -2901,7 +2901,7 @@
       <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr">
         <is>
-          <t>a8583325-1003-4ca7-8083-7c583e2103fe</t>
+          <t>c81ee510-ebb4-4858-ad65-195c0001b179</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
@@ -2911,7 +2911,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>46d59daf-21b1-4488-9ce8-4b728543d43f</t>
+          <t>e77ec7f7-075f-423d-9b6f-0427286e45d8</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -2928,7 +2928,7 @@
       <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
-          <t>e4418434-7517-49fe-b6c9-f6cc3c5170da</t>
+          <t>6390857d-d0c1-4fab-b7af-e9c61321a6f9</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
@@ -2938,7 +2938,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>a10c87ba-20dc-47d8-953f-851ad0579da2</t>
+          <t>77b6d455-bf02-4796-85eb-ea395cada5ca</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -2955,7 +2955,7 @@
       <c r="A187" t="inlineStr"/>
       <c r="B187" t="inlineStr">
         <is>
-          <t>5ee5622e-bd0c-4121-9c17-0043df380b15</t>
+          <t>39e8be88-3e30-4fcc-acea-54a7a77d915b</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
@@ -2965,7 +2965,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>dbb6bbd3-13b5-4f4c-b858-955e9b036a33</t>
+          <t>211f2108-40dd-4a99-aba3-84122b071cd4</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -2982,7 +2982,7 @@
       <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr">
         <is>
-          <t>b6885910-2d98-4a9c-b109-37b96c98bc73</t>
+          <t>d50eb295-bf02-4a1f-be10-35ccd7afd066</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2619a224-fc04-49cc-a533-6f098b4c85ff</t>
+          <t>77641aa7-ef6a-4026-b36e-14cda75967f1</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -3009,7 +3009,7 @@
       <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr">
         <is>
-          <t>7840f987-a7f4-4b3d-90a7-5bdacddd0137</t>
+          <t>9ea348d5-e57e-413c-a0d8-c2a7cff090e5</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
@@ -3019,7 +3019,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>6ebbbde9-b599-468a-881a-89d274d66b46</t>
+          <t>696dd04e-6766-4694-a14a-11de2d2e63b7</t>
         </is>
       </c>
       <c r="B192" t="inlineStr"/>
@@ -3036,7 +3036,7 @@
       <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2f1d3ac3-20d8-4e38-81a3-c1fae24a75df</t>
+          <t>c29b8c21-caa0-4b8f-80c0-0e43274629e5</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
@@ -3046,7 +3046,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>736e2852-5831-4324-b020-f20d2798e582</t>
+          <t>d844a6af-3422-4426-9d68-6f7a90f5f36e</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3063,7 +3063,7 @@
       <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr">
         <is>
-          <t>c2878f99-58bb-4e78-8efe-031de09c49d7</t>
+          <t>bcc13621-7692-4157-9b41-d10267dd5c74</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -3416,7 +3416,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>e06f1ce8-e406-4a75-9c0f-3ad659f79fca</t>
+          <t>75981e67-94c0-4e0b-abd6-50a4ea80c169</t>
         </is>
       </c>
       <c r="B245" t="inlineStr"/>
@@ -3432,7 +3432,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>645d2908-26c9-454a-bca8-9a0dff03f6e7</t>
+          <t>06f35156-2ade-4d3e-b5fb-e7d024a0cfe0</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -3447,7 +3447,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2c5e6842-3fcc-4564-ab52-0a0cf870dcd2</t>
+          <t>615eee4b-fbf3-428f-96ca-c6de48f514c3</t>
         </is>
       </c>
       <c r="B247" t="inlineStr"/>
@@ -3463,7 +3463,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>f8c793f4-8772-4ae7-a5d6-ae15184aa759</t>
+          <t>2452720e-0d3b-4916-a097-73785956c40f</t>
         </is>
       </c>
       <c r="B248" t="inlineStr"/>
@@ -3479,7 +3479,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>e85f940c-79a8-4b47-bb9f-f157b03c7c79</t>
+          <t>6461faaf-2192-4b80-9fdd-eac6592eb376</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -3496,7 +3496,7 @@
       <c r="A250" t="inlineStr"/>
       <c r="B250" t="inlineStr">
         <is>
-          <t>3cd7aa63-e273-4f3c-8861-b51e11deb09e</t>
+          <t>d7a8dbfe-c6d2-417c-ba1e-20605bc9905a</t>
         </is>
       </c>
       <c r="C250" t="inlineStr"/>
@@ -3507,7 +3507,7 @@
       <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr">
         <is>
-          <t>6c2cc1a0-a8b5-4b77-9610-acf3374a751b</t>
+          <t>bb72650c-7cb2-4880-8832-86e08f9e1644</t>
         </is>
       </c>
       <c r="C251" t="inlineStr"/>
@@ -3518,7 +3518,7 @@
       <c r="A252" t="inlineStr"/>
       <c r="B252" t="inlineStr">
         <is>
-          <t>50cd0ba2-2725-4130-80fc-8bc7bcc3ffb8</t>
+          <t>0f5aa336-fc20-41c1-833f-ff52c7978d0d</t>
         </is>
       </c>
       <c r="C252" t="inlineStr"/>
@@ -3529,7 +3529,7 @@
       <c r="A253" t="inlineStr"/>
       <c r="B253" t="inlineStr">
         <is>
-          <t>7001d783-2c44-4b51-b9ef-77e0757edce6</t>
+          <t>d994e511-6a70-4174-858d-25b8fdc83358</t>
         </is>
       </c>
       <c r="C253" t="inlineStr"/>
@@ -3540,7 +3540,7 @@
       <c r="A254" t="inlineStr"/>
       <c r="B254" t="inlineStr">
         <is>
-          <t>8241c098-76ab-4dd8-9e8a-d19f9bfb72c0</t>
+          <t>493f7933-15e2-4123-b3d6-89cec5cc7c36</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
